--- a/src/5t/assets/BEAM.xlsx
+++ b/src/5t/assets/BEAM.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
-    <t xml:space="preserve"> 二级BOM  主梁，4.5˂S≤5 ，4.4m˂H0≤6m（图号：M60331）</t>
-  </si>
-  <si>
-    <t>7004-00146</t>
+    <t xml:space="preserve"> 二级BOM  主梁，4.5˂S≤5 ，4.4m˂H0≤6m（图号：M60531）</t>
+  </si>
+  <si>
+    <t>7004-00281</t>
   </si>
   <si>
     <t>主梁</t>
@@ -91,7 +91,7 @@
     <t>M310501.4</t>
   </si>
   <si>
-    <t>7004-00184</t>
+    <t>7004-00331</t>
   </si>
   <si>
     <t>工字钢 I28b</t>
@@ -106,7 +106,7 @@
     <t>Q235BF</t>
   </si>
   <si>
-    <t>7004-00185</t>
+    <t>7004-00332</t>
   </si>
   <si>
     <t>侧盖板</t>
@@ -130,34 +130,34 @@
     <t>借NF100-00</t>
   </si>
   <si>
-    <t>7004-00186</t>
+    <t>7004-00333</t>
   </si>
   <si>
     <t xml:space="preserve">U型槽 </t>
   </si>
   <si>
-    <t>U型槽 5×350×275-(S-6)</t>
-  </si>
-  <si>
-    <t>7004-00187</t>
+    <t>U型槽 5×350×325-(S-6)</t>
+  </si>
+  <si>
+    <t>7004-00334</t>
   </si>
   <si>
     <t>隔板</t>
   </si>
   <si>
-    <t>隔板 5×340×365</t>
-  </si>
-  <si>
-    <t>7004-00188</t>
+    <t>隔板 5×340×415</t>
+  </si>
+  <si>
+    <t>7004-00335</t>
   </si>
   <si>
     <t>燕尾板</t>
   </si>
   <si>
-    <t>燕尾板 6×420×400</t>
-  </si>
-  <si>
-    <t>7004-00189</t>
+    <t>燕尾板 6×480×400</t>
+  </si>
+  <si>
+    <t>7004-00336</t>
   </si>
   <si>
     <t>挂板</t>
@@ -166,25 +166,25 @@
     <t>挂板 16×295×500</t>
   </si>
   <si>
-    <t>7004-00190</t>
+    <t>7004-00337</t>
   </si>
   <si>
     <t>堵头板</t>
   </si>
   <si>
-    <t>堵头板 6×570×660</t>
-  </si>
-  <si>
-    <t>7004-00191</t>
+    <t>堵头板 6×570×730</t>
+  </si>
+  <si>
+    <t>7004-00338</t>
   </si>
   <si>
     <t>加强板</t>
   </si>
   <si>
-    <t>板 6×280×450</t>
-  </si>
-  <si>
-    <t>7004-00192</t>
+    <t>板 6×279×550</t>
+  </si>
+  <si>
+    <t>7004-00339</t>
   </si>
   <si>
     <t>挑线架</t>
@@ -193,13 +193,13 @@
     <t>M60331.1A</t>
   </si>
   <si>
-    <t>7004-00193</t>
+    <t>7004-00340</t>
   </si>
   <si>
     <t>法兰板</t>
   </si>
   <si>
-    <t>板 12×590×540</t>
+    <t>板 12×590×630</t>
   </si>
 </sst>
 </file>
@@ -236,67 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,16 +251,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,25 +341,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,7 +366,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,73 +406,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,103 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,17 +615,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,11 +639,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,17 +673,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -698,17 +702,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="6">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="M2" s="6">
         <f t="shared" ref="M2:M18" si="0">L2*I2</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
@@ -1600,11 +1600,11 @@
         <v>29</v>
       </c>
       <c r="L8" s="6">
-        <v>238</v>
+        <v>353.6</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>353.6</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
@@ -1652,11 +1652,11 @@
         <v>33</v>
       </c>
       <c r="L9" s="6">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
-        <v>111.4</v>
+        <v>111.6</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8" t="s">
@@ -1754,11 +1754,11 @@
         <v>33</v>
       </c>
       <c r="L11" s="6">
-        <v>176</v>
+        <v>215.3</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>215.3</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8" t="s">
@@ -1804,11 +1804,11 @@
         <v>33</v>
       </c>
       <c r="L12" s="14">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="0"/>
-        <v>25.98</v>
+        <v>30</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>37</v>
@@ -1856,11 +1856,11 @@
         <v>33</v>
       </c>
       <c r="L13" s="6">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>37</v>
@@ -1960,11 +1960,11 @@
         <v>33</v>
       </c>
       <c r="L15" s="6">
-        <v>11.75</v>
+        <v>17.13</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="0"/>
-        <v>11.75</v>
+        <v>17.13</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>37</v>
@@ -2012,11 +2012,11 @@
         <v>33</v>
       </c>
       <c r="L16" s="6">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="0"/>
-        <v>8.8</v>
+        <v>9.2</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>37</v>
@@ -2116,11 +2116,11 @@
         <v>33</v>
       </c>
       <c r="L18" s="6">
-        <v>32.2</v>
+        <v>37.3</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="0"/>
-        <v>32.2</v>
+        <v>37.3</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>37</v>

--- a/src/5t/assets/BEAM.xlsx
+++ b/src/5t/assets/BEAM.xlsx
@@ -235,16 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,9 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,14 +279,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +294,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,10 +325,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,29 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -406,24 +406,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,43 +466,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,43 +502,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,49 +556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,21 +641,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,7 +663,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -701,17 +712,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -720,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1800,9 +1800,7 @@
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="14">
         <v>5</v>
       </c>
@@ -1852,9 +1850,7 @@
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="6">
         <v>4.7</v>
       </c>
@@ -1904,9 +1900,7 @@
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="6">
         <v>15.1</v>
       </c>
@@ -1956,9 +1950,7 @@
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="6">
         <v>17.13</v>
       </c>
@@ -2008,9 +2000,7 @@
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="6">
         <v>4.6</v>
       </c>
@@ -2112,9 +2102,7 @@
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="6">
         <v>37.3</v>
       </c>
